--- a/src/static/scats_upload_example.xlsx
+++ b/src/static/scats_upload_example.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Scats" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Scats" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Scats!$A$1:$AI$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Scats!$A$1:$AJ$25</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="105">
   <si>
     <t xml:space="preserve">scat_id</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">institution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">box_number</t>
   </si>
   <si>
     <t xml:space="preserve">notes</t>
@@ -421,64 +424,60 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -495,15 +494,15 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEEEEEC"/>
-          <bgColor rgb="FF2D2D2D"/>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -511,18 +510,124 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D25"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.35546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.42"/>
@@ -542,14 +647,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="23.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="17.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="47.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="28.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="17.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="221.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="8.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="23" style="1" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="36.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="221.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="8.5"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="1" width="8.36"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="6" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -604,7 +710,7 @@
       <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
@@ -613,1368 +719,1449 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="9" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8" t="n">
         <v>43954</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>28</v>
+      <c r="L2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="P2" s="10" t="n">
         <v>484424</v>
       </c>
-      <c r="Q2" s="11" t="n">
+      <c r="Q2" s="10" t="n">
         <v>4933576</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="8" t="s">
+      <c r="R2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>33</v>
+      </c>
+      <c r="U2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>43955</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>22</v>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="F3" s="12"/>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P3" s="13" t="n">
         <v>478158</v>
       </c>
-      <c r="Q3" s="14" t="n">
+      <c r="Q3" s="13" t="n">
         <v>4941509</v>
       </c>
-      <c r="R3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="8" t="s">
+      <c r="R3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="T3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>22</v>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>28</v>
+      <c r="L4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P4" s="13" t="n">
         <v>404266</v>
       </c>
-      <c r="Q4" s="14" t="n">
+      <c r="Q4" s="13" t="n">
         <v>4885098</v>
       </c>
-      <c r="R4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" s="8" t="s">
+      <c r="R4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="U4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" s="7" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P5" s="13" t="n">
         <v>362465</v>
       </c>
-      <c r="Q5" s="14" t="n">
+      <c r="Q5" s="13" t="n">
         <v>4922505</v>
       </c>
-      <c r="R5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U5" s="8"/>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="R5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>52</v>
+      </c>
+      <c r="U5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="7"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>22</v>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P6" s="13" t="n">
         <v>394822</v>
       </c>
-      <c r="Q6" s="14" t="n">
+      <c r="Q6" s="13" t="n">
         <v>4885494</v>
       </c>
-      <c r="R6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="8" t="s">
+      <c r="R6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="8"/>
-    </row>
-    <row r="7" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>56</v>
+      <c r="T6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>22</v>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>28</v>
+      <c r="L7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P7" s="13" t="n">
         <v>394735</v>
       </c>
-      <c r="Q7" s="14" t="n">
+      <c r="Q7" s="13" t="n">
         <v>4885259</v>
       </c>
-      <c r="R7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="8" t="s">
+      <c r="R7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U7" s="8"/>
-    </row>
-    <row r="8" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>57</v>
+      <c r="T7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="7"/>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>22</v>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>28</v>
+      <c r="L8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P8" s="13" t="n">
         <v>393705</v>
       </c>
-      <c r="Q8" s="14" t="n">
+      <c r="Q8" s="13" t="n">
         <v>4886299</v>
       </c>
-      <c r="R8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" s="8"/>
-    </row>
-    <row r="9" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>59</v>
+      <c r="R8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" s="7"/>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>22</v>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>28</v>
+      <c r="L9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P9" s="13" t="n">
         <v>393700</v>
       </c>
-      <c r="Q9" s="14" t="n">
+      <c r="Q9" s="13" t="n">
         <v>4886303</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U9" s="8"/>
+      <c r="R9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" s="7"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>61</v>
+      <c r="A10" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>22</v>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P10" s="13" t="n">
         <v>393700</v>
       </c>
-      <c r="Q10" s="14" t="n">
+      <c r="Q10" s="13" t="n">
         <v>4886303</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="8"/>
+      <c r="R10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="7"/>
     </row>
     <row r="11" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>63</v>
+      <c r="A11" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>22</v>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>28</v>
+      <c r="L11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P11" s="13" t="n">
         <v>393101</v>
       </c>
-      <c r="Q11" s="14" t="n">
+      <c r="Q11" s="13" t="n">
         <v>4887340</v>
       </c>
-      <c r="R11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="8"/>
+      <c r="R11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" s="7"/>
     </row>
     <row r="12" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>65</v>
+      <c r="A12" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>22</v>
+      <c r="D12" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>28</v>
+      <c r="L12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P12" s="13" t="n">
         <v>393484</v>
       </c>
-      <c r="Q12" s="14" t="n">
+      <c r="Q12" s="13" t="n">
         <v>4887697</v>
       </c>
-      <c r="R12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U12" s="8"/>
+      <c r="R12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>67</v>
+      <c r="A13" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>44105</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P13" s="13" t="n">
         <v>398861</v>
       </c>
-      <c r="Q13" s="14" t="n">
+      <c r="Q13" s="13" t="n">
         <v>4887335</v>
       </c>
-      <c r="R13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U13" s="8" t="s">
-        <v>71</v>
+      <c r="R13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>72</v>
+      <c r="A14" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>44105</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P14" s="13" t="n">
         <v>398613</v>
       </c>
-      <c r="Q14" s="14" t="n">
+      <c r="Q14" s="13" t="n">
         <v>4888051</v>
       </c>
-      <c r="R14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>75</v>
+      <c r="R14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>76</v>
+      <c r="A15" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
+      <c r="D15" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P15" s="13" t="n">
         <v>476406</v>
       </c>
-      <c r="Q15" s="14" t="n">
+      <c r="Q15" s="13" t="n">
         <v>4937706</v>
       </c>
-      <c r="R15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" s="8"/>
+      <c r="R15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" s="7"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>79</v>
+      <c r="A16" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>22</v>
+      <c r="D16" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P16" s="13" t="n">
         <v>488481</v>
       </c>
-      <c r="Q16" s="14" t="n">
+      <c r="Q16" s="13" t="n">
         <v>4960534</v>
       </c>
-      <c r="R16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U16" s="8"/>
+      <c r="R16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>83</v>
+      <c r="A17" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>44136</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>22</v>
+        <v>85</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P17" s="13" t="n">
         <v>364729</v>
       </c>
-      <c r="Q17" s="14" t="n">
+      <c r="Q17" s="13" t="n">
         <v>4903383</v>
       </c>
-      <c r="R17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="T17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U17" s="8"/>
+      <c r="R17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>87</v>
+      <c r="A18" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>44136</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>22</v>
+        <v>89</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P18" s="13" t="n">
         <v>364301</v>
       </c>
-      <c r="Q18" s="14" t="n">
+      <c r="Q18" s="13" t="n">
         <v>4903743</v>
       </c>
-      <c r="R18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="T18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U18" s="8"/>
+      <c r="R18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>90</v>
+      <c r="A19" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>44136</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>22</v>
+        <v>92</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P19" s="13" t="n">
         <v>360212</v>
       </c>
-      <c r="Q19" s="14" t="n">
+      <c r="Q19" s="13" t="n">
         <v>4895997</v>
       </c>
-      <c r="R19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>93</v>
+      <c r="R19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>44136</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>22</v>
+        <v>95</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P20" s="13" t="n">
         <v>399117</v>
       </c>
-      <c r="Q20" s="14" t="n">
+      <c r="Q20" s="13" t="n">
         <v>4889603</v>
       </c>
-      <c r="R20" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U20" s="8"/>
-    </row>
-    <row r="21" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="R20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="11" t="s">
         <v>97</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" s="7"/>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>22</v>
+      <c r="D21" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P21" s="13" t="n">
         <v>399828</v>
       </c>
-      <c r="Q21" s="14" t="n">
+      <c r="Q21" s="13" t="n">
         <v>4891769</v>
       </c>
-      <c r="R21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S21" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U21" s="8"/>
-    </row>
-    <row r="22" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>99</v>
+      <c r="R21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="7"/>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>22</v>
+      <c r="D22" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>28</v>
+      <c r="L22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P22" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P22" s="13" t="n">
         <v>400503</v>
       </c>
-      <c r="Q22" s="14" t="n">
+      <c r="Q22" s="13" t="n">
         <v>4891036</v>
       </c>
-      <c r="R22" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="T22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U22" s="8"/>
-    </row>
-    <row r="23" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>101</v>
+      <c r="R22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="7"/>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>22</v>
+      <c r="D23" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>28</v>
+      <c r="L23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P23" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P23" s="13" t="n">
         <v>400504</v>
       </c>
-      <c r="Q23" s="14" t="n">
+      <c r="Q23" s="13" t="n">
         <v>4891036</v>
       </c>
-      <c r="R23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S23" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="T23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="U23" s="8"/>
-    </row>
-    <row r="24" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>102</v>
+      <c r="R23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" s="7"/>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>22</v>
+      <c r="D24" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>28</v>
+      <c r="L24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P24" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P24" s="13" t="n">
         <v>400503</v>
       </c>
-      <c r="Q24" s="14" t="n">
+      <c r="Q24" s="13" t="n">
         <v>4891037</v>
       </c>
-      <c r="R24" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="T24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U24" s="8"/>
-    </row>
-    <row r="25" s="1" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>103</v>
+      <c r="R24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="25" s="1" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>22</v>
+      <c r="D25" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" s="14" t="n">
+        <v>30</v>
+      </c>
+      <c r="P25" s="13" t="n">
         <v>400504</v>
       </c>
-      <c r="Q25" s="14" t="n">
+      <c r="Q25" s="13" t="n">
         <v>4891037</v>
       </c>
-      <c r="R25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="T25" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="U25" s="8"/>
+      <c r="R25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U27" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="4">
